--- a/TableFormat_ConversionDefinition.xlsx
+++ b/TableFormat_ConversionDefinition.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867D18AF-7CDE-4FE6-870F-57E666AE7969}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C70DB39-CA4A-4E54-B611-EF1690BE2CB9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="format to number" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
   <si>
     <t>format description</t>
   </si>
@@ -140,9 +140,6 @@
     <t>go right</t>
   </si>
   <si>
-    <t>crossed out</t>
-  </si>
-  <si>
     <t>next as number</t>
   </si>
   <si>
@@ -297,6 +294,81 @@
   </si>
   <si>
     <t>ends the program</t>
+  </si>
+  <si>
+    <t>may be added later</t>
+  </si>
+  <si>
+    <t>crossed \ #????00</t>
+  </si>
+  <si>
+    <t>crossed \ #????55</t>
+  </si>
+  <si>
+    <t>crossed \ #????aa</t>
+  </si>
+  <si>
+    <t>crossed \ #????ff</t>
+  </si>
+  <si>
+    <t>crossed \ #??00??</t>
+  </si>
+  <si>
+    <t>crossed \ #??55??</t>
+  </si>
+  <si>
+    <t>crossed \ #??aa??</t>
+  </si>
+  <si>
+    <t>crossed \ #??ff??</t>
+  </si>
+  <si>
+    <t>crossed \ #00????</t>
+  </si>
+  <si>
+    <t>crossed \ #55????</t>
+  </si>
+  <si>
+    <t>crossed \ #aa????</t>
+  </si>
+  <si>
+    <t>crossed \ #ff????</t>
+  </si>
+  <si>
+    <t>crossed / #????00</t>
+  </si>
+  <si>
+    <t>crossed / #????55</t>
+  </si>
+  <si>
+    <t>crossed / #????aa</t>
+  </si>
+  <si>
+    <t>crossed / #????ff</t>
+  </si>
+  <si>
+    <t>crossed / #??00??</t>
+  </si>
+  <si>
+    <t>crossed / #??55??</t>
+  </si>
+  <si>
+    <t>crossed / #??aa??</t>
+  </si>
+  <si>
+    <t>crossed / #??ff??</t>
+  </si>
+  <si>
+    <t>crossed / #00????</t>
+  </si>
+  <si>
+    <t>crossed / #55????</t>
+  </si>
+  <si>
+    <t>crossed / #aa????</t>
+  </si>
+  <si>
+    <t>crossed / #ff????</t>
   </si>
 </sst>
 </file>
@@ -450,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -458,11 +530,191 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FFFFFF00"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FFFFFF00"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FFFFFF55"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FFFFFF55"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FFFFFFAA"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FFFFFFAA"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FFFFFFFF"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FFFFFFFF"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FFFF00FF"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FFFF00FF"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FFFF55FF"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FFFF55FF"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FFFFAAFF"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FFFFAAFF"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FF00FFFF"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FF00FFFF"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FF55FFFF"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FF55FFFF"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FFAAFFFF"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FFAAFFFF"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -486,6 +738,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -494,12 +766,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF55FF"/>
-      <color rgb="FFFFAAFF"/>
+      <color rgb="FFFFFFFF"/>
       <color rgb="FFAAFFFF"/>
       <color rgb="FF55FFFF"/>
-      <color rgb="FFFFFFFF"/>
       <color rgb="FF00FFFF"/>
+      <color rgb="FFFFAAFF"/>
+      <color rgb="FFFF55FF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FFFFFFAA"/>
       <color rgb="FFFFFF55"/>
@@ -780,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +1066,7 @@
     <col min="4" max="5" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -811,7 +1083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -829,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -843,11 +1115,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E25" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E49" si="0">C3*D3</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -865,7 +1137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -883,7 +1155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -901,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -919,7 +1191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -937,7 +1209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -956,7 +1228,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -975,7 +1247,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -994,7 +1266,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1014,11 +1286,11 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="6">
@@ -1034,7 +1306,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1054,7 +1326,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1075,7 +1347,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1095,8 +1367,11 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1116,8 +1391,11 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1138,8 +1416,11 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1160,8 +1441,11 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1183,7 +1467,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1202,7 +1486,7 @@
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1221,7 +1505,7 @@
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1240,7 +1524,7 @@
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1260,7 +1544,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1280,31 +1564,447 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
+        <v>92</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>4096</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6">
+        <v>4096</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6">
+        <v>2</v>
+      </c>
+      <c r="D28" s="6">
+        <v>4096</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="6">
+        <v>3</v>
+      </c>
+      <c r="D29" s="6">
+        <v>4096</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="0"/>
+        <v>12288</v>
+      </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>16384</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31" s="6">
+        <v>16384</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2</v>
+      </c>
+      <c r="D32" s="6">
+        <v>16384</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" si="0"/>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="6">
+        <v>3</v>
+      </c>
+      <c r="D33" s="6">
+        <v>16384</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="0"/>
+        <v>49152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>65536</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6">
+        <v>65536</v>
+      </c>
+      <c r="E35" s="6">
+        <f t="shared" si="0"/>
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="6">
+        <v>2</v>
+      </c>
+      <c r="D36" s="6">
+        <v>65536</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" si="0"/>
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="6">
+        <v>3</v>
+      </c>
+      <c r="D37" s="6">
+        <v>65536</v>
+      </c>
+      <c r="E37" s="6">
+        <f t="shared" si="0"/>
+        <v>196608</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>262144</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6">
+        <v>262144</v>
+      </c>
+      <c r="E39" s="6">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="6">
+        <v>2</v>
+      </c>
+      <c r="D40" s="6">
+        <v>262144</v>
+      </c>
+      <c r="E40" s="6">
+        <f t="shared" si="0"/>
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="6">
+        <v>3</v>
+      </c>
+      <c r="D41" s="6">
+        <v>262144</v>
+      </c>
+      <c r="E41" s="6">
+        <f t="shared" si="0"/>
+        <v>786432</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1048576</v>
+      </c>
+      <c r="E42" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1048576</v>
+      </c>
+      <c r="E43" s="6">
+        <f t="shared" si="0"/>
+        <v>1048576</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44" s="6">
+        <v>1048576</v>
+      </c>
+      <c r="E44" s="6">
+        <f t="shared" si="0"/>
+        <v>2097152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="6">
+        <v>3</v>
+      </c>
+      <c r="D45" s="6">
+        <v>1048576</v>
+      </c>
+      <c r="E45" s="6">
+        <f t="shared" si="0"/>
+        <v>3145728</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6">
+        <v>4194304</v>
+      </c>
+      <c r="E46" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6">
+        <v>4194304</v>
+      </c>
+      <c r="E47" s="6">
+        <f t="shared" si="0"/>
+        <v>4194304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="6">
+        <v>2</v>
+      </c>
+      <c r="D48" s="6">
+        <v>4194304</v>
+      </c>
+      <c r="E48" s="6">
+        <f t="shared" si="0"/>
+        <v>8388608</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="6">
+        <v>3</v>
+      </c>
+      <c r="D49" s="6">
+        <v>4194304</v>
+      </c>
+      <c r="E49" s="6">
+        <f t="shared" si="0"/>
+        <v>12582912</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1316,7 +2016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F928CD-8A96-42B3-B16E-F8327990D609}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -1395,10 +2095,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
         <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1406,10 +2106,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1417,10 +2117,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1428,10 +2128,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1439,10 +2139,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
         <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1450,10 +2150,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1461,10 +2161,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
         <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1472,10 +2172,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1483,10 +2183,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1494,10 +2194,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1505,10 +2205,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1516,10 +2216,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1527,10 +2227,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1538,10 +2238,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1549,10 +2249,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1560,10 +2260,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1571,10 +2271,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1582,10 +2282,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1593,10 +2293,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1604,10 +2304,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1615,10 +2315,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1626,10 +2326,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1637,10 +2337,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
         <v>70</v>
-      </c>
-      <c r="C29" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1648,10 +2348,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1659,10 +2359,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1670,10 +2370,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1681,10 +2381,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1692,10 +2392,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1703,10 +2403,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1714,10 +2414,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1725,10 +2425,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1736,10 +2436,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
         <v>88</v>
-      </c>
-      <c r="C38" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1747,15 +2447,21 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
         <v>90</v>
-      </c>
-      <c r="C39" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">

--- a/TableFormat_ConversionDefinition.xlsx
+++ b/TableFormat_ConversionDefinition.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C70DB39-CA4A-4E54-B611-EF1690BE2CB9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7235E6-6DEC-472A-9FF3-13DC0504E39C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,76 +299,76 @@
     <t>may be added later</t>
   </si>
   <si>
-    <t>crossed \ #????00</t>
-  </si>
-  <si>
-    <t>crossed \ #????55</t>
-  </si>
-  <si>
-    <t>crossed \ #????aa</t>
-  </si>
-  <si>
-    <t>crossed \ #????ff</t>
-  </si>
-  <si>
-    <t>crossed \ #??00??</t>
-  </si>
-  <si>
-    <t>crossed \ #??55??</t>
-  </si>
-  <si>
-    <t>crossed \ #??aa??</t>
-  </si>
-  <si>
-    <t>crossed \ #??ff??</t>
-  </si>
-  <si>
-    <t>crossed \ #00????</t>
-  </si>
-  <si>
-    <t>crossed \ #55????</t>
-  </si>
-  <si>
-    <t>crossed \ #aa????</t>
-  </si>
-  <si>
-    <t>crossed \ #ff????</t>
-  </si>
-  <si>
-    <t>crossed / #????00</t>
-  </si>
-  <si>
-    <t>crossed / #????55</t>
-  </si>
-  <si>
-    <t>crossed / #????aa</t>
-  </si>
-  <si>
-    <t>crossed / #????ff</t>
-  </si>
-  <si>
-    <t>crossed / #??00??</t>
-  </si>
-  <si>
-    <t>crossed / #??55??</t>
-  </si>
-  <si>
-    <t>crossed / #??aa??</t>
-  </si>
-  <si>
-    <t>crossed / #??ff??</t>
-  </si>
-  <si>
-    <t>crossed / #00????</t>
-  </si>
-  <si>
-    <t>crossed / #55????</t>
-  </si>
-  <si>
-    <t>crossed / #aa????</t>
-  </si>
-  <si>
-    <t>crossed / #ff????</t>
+    <t>underlined #????00</t>
+  </si>
+  <si>
+    <t>underlined #????55</t>
+  </si>
+  <si>
+    <t>underlined #????aa</t>
+  </si>
+  <si>
+    <t>underlined #????ff</t>
+  </si>
+  <si>
+    <t>underlined #??00??</t>
+  </si>
+  <si>
+    <t>underlined #??55??</t>
+  </si>
+  <si>
+    <t>underlined #??aa??</t>
+  </si>
+  <si>
+    <t>underlined #??ff??</t>
+  </si>
+  <si>
+    <t>underlined #00????</t>
+  </si>
+  <si>
+    <t>underlined #55????</t>
+  </si>
+  <si>
+    <t>underlined #aa????</t>
+  </si>
+  <si>
+    <t>underlined #ff????</t>
+  </si>
+  <si>
+    <t>right border #????00</t>
+  </si>
+  <si>
+    <t>right border #????55</t>
+  </si>
+  <si>
+    <t>right border #????aa</t>
+  </si>
+  <si>
+    <t>right border #????ff</t>
+  </si>
+  <si>
+    <t>right border #??00??</t>
+  </si>
+  <si>
+    <t>right border #??55??</t>
+  </si>
+  <si>
+    <t>right border #??aa??</t>
+  </si>
+  <si>
+    <t>right border #??ff??</t>
+  </si>
+  <si>
+    <t>right border #00????</t>
+  </si>
+  <si>
+    <t>right border #55????</t>
+  </si>
+  <si>
+    <t>right border #aa????</t>
+  </si>
+  <si>
+    <t>right border #ff????</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -530,191 +530,231 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="1">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal style="thin">
+      <bottom style="thin">
         <color rgb="FFFFFF00"/>
-      </diagonal>
+      </bottom>
+      <diagonal/>
     </border>
-    <border diagonalUp="1">
+    <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color rgb="FFFFFF00"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFF55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFF55"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFAA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFF00"/>
+      </right>
       <top/>
       <bottom/>
-      <diagonal style="thin">
-        <color rgb="FFFFFF00"/>
-      </diagonal>
+      <diagonal/>
     </border>
-    <border diagonalDown="1">
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFF55"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFAA"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF00FF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF55FF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFAAFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF00FFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF55FFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color rgb="FFFFFF55"/>
-      </diagonal>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF00FF"/>
+      </bottom>
+      <diagonal/>
     </border>
-    <border diagonalUp="1">
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color rgb="FFFFFF55"/>
-      </diagonal>
+      <top style="thin">
+        <color rgb="FFFF00FF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF55FF"/>
+      </bottom>
+      <diagonal/>
     </border>
-    <border diagonalDown="1">
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color rgb="FFFFFFAA"/>
-      </diagonal>
+      <top style="thin">
+        <color rgb="FFFF55FF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFAAFF"/>
+      </bottom>
+      <diagonal/>
     </border>
-    <border diagonalUp="1">
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color rgb="FFFFFFAA"/>
-      </diagonal>
+      <top style="thin">
+        <color rgb="FFFFAAFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
     </border>
-    <border diagonalDown="1">
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
+      <top style="thin">
         <color rgb="FFFFFFFF"/>
-      </diagonal>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00FFFF"/>
+      </bottom>
+      <diagonal/>
     </border>
-    <border diagonalUp="1">
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color rgb="FFFFFFFF"/>
-      </diagonal>
+      <top style="thin">
+        <color rgb="FF00FFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF55FFFF"/>
+      </bottom>
+      <diagonal/>
     </border>
-    <border diagonalDown="1">
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color rgb="FFFF00FF"/>
-      </diagonal>
+      <top style="thin">
+        <color rgb="FF55FFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAFFFF"/>
+      </bottom>
+      <diagonal/>
     </border>
-    <border diagonalUp="1">
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color rgb="FFFF00FF"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color rgb="FFFF55FF"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color rgb="FFFF55FF"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color rgb="FFFFAAFF"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color rgb="FFFFAAFF"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color rgb="FF00FFFF"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color rgb="FF00FFFF"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color rgb="FF55FFFF"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color rgb="FF55FFFF"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
+      <top style="thin">
         <color rgb="FFAAFFFF"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color rgb="FFAAFFFF"/>
-      </diagonal>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -758,6 +798,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -771,8 +813,8 @@
       <color rgb="FF55FFFF"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FFFFAAFF"/>
+      <color rgb="FFFF00FF"/>
       <color rgb="FFFF55FF"/>
-      <color rgb="FFFF00FF"/>
       <color rgb="FFFFFFAA"/>
       <color rgb="FFFFFF55"/>
       <color rgb="FFFFFF00"/>
@@ -1054,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28:O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,7 +1630,7 @@
       <c r="A27" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="6">
@@ -1608,7 +1650,7 @@
       <c r="A28" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="6">
@@ -1628,7 +1670,7 @@
       <c r="A29" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="6">
@@ -1648,7 +1690,7 @@
       <c r="A30" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="37" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="6">
@@ -1668,7 +1710,7 @@
       <c r="A31" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="38" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="6">
@@ -1686,7 +1728,7 @@
       <c r="A32" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="39" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="6">
@@ -1704,7 +1746,7 @@
       <c r="A33" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="40" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="6">
@@ -1722,7 +1764,7 @@
       <c r="A34" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="41" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="6">
@@ -1740,7 +1782,7 @@
       <c r="A35" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="42" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="6">
@@ -1758,7 +1800,7 @@
       <c r="A36" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="6">
@@ -1776,7 +1818,7 @@
       <c r="A37" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="6">
@@ -1794,7 +1836,7 @@
       <c r="A38" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="6">
@@ -1812,7 +1854,7 @@
       <c r="A39" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="28" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="6">
@@ -1830,7 +1872,7 @@
       <c r="A40" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="6">
@@ -1866,7 +1908,7 @@
       <c r="A42" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="6">
@@ -1884,7 +1926,7 @@
       <c r="A43" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="6">
@@ -1902,7 +1944,7 @@
       <c r="A44" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="6">
@@ -1938,7 +1980,7 @@
       <c r="A46" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="34" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="6">
@@ -1956,7 +1998,7 @@
       <c r="A47" t="s">
         <v>113</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="6">
@@ -1974,7 +2016,7 @@
       <c r="A48" t="s">
         <v>114</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="36" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="6">

--- a/TableFormat_ConversionDefinition.xlsx
+++ b/TableFormat_ConversionDefinition.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7235E6-6DEC-472A-9FF3-13DC0504E39C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0921A29C-ECF2-453D-B4A7-5CA56CE18667}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="format to number" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="118">
   <si>
     <t>format description</t>
   </si>
@@ -369,6 +369,12 @@
   </si>
   <si>
     <t>right border #ff????</t>
+  </si>
+  <si>
+    <t>pause</t>
+  </si>
+  <si>
+    <t>for the amount of miliseconds specified by A</t>
   </si>
 </sst>
 </file>
@@ -1096,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28:O31"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,8 +2064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F928CD-8A96-42B3-B16E-F8327990D609}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2489,10 +2495,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2500,15 +2506,21 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">

--- a/TableFormat_ConversionDefinition.xlsx
+++ b/TableFormat_ConversionDefinition.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0921A29C-ECF2-453D-B4A7-5CA56CE18667}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED577DF-3495-4980-BB52-A7B9FB4A2C52}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,9 +233,6 @@
     <t>negate</t>
   </si>
   <si>
-    <t>negates C into E</t>
-  </si>
-  <si>
     <t>and</t>
   </si>
   <si>
@@ -248,9 +245,6 @@
     <t>add</t>
   </si>
   <si>
-    <t>substract</t>
-  </si>
-  <si>
     <t>multiply</t>
   </si>
   <si>
@@ -375,6 +369,12 @@
   </si>
   <si>
     <t>for the amount of miliseconds specified by A</t>
+  </si>
+  <si>
+    <t>subtract</t>
+  </si>
+  <si>
+    <t>negates C into E as C xor Integer.MAX_VALUE</t>
   </si>
 </sst>
 </file>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>3</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>3</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>3</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B29" s="26" t="s">
         <v>3</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B30" s="37" t="s">
         <v>3</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B31" s="38" t="s">
         <v>3</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B32" s="39" t="s">
         <v>3</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B33" s="40" t="s">
         <v>3</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B34" s="41" t="s">
         <v>3</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B35" s="42" t="s">
         <v>3</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B36" s="43" t="s">
         <v>3</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B37" s="44" t="s">
         <v>3</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>3</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B39" s="28" t="s">
         <v>3</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B40" s="29" t="s">
         <v>3</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>3</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B42" s="31" t="s">
         <v>3</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>3</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B44" s="33" t="s">
         <v>3</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B45" s="30" t="s">
         <v>3</v>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B46" s="34" t="s">
         <v>3</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B47" s="35" t="s">
         <v>3</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B48" s="36" t="s">
         <v>3</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B49" s="30" t="s">
         <v>3</v>
@@ -2064,8 +2064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F928CD-8A96-42B3-B16E-F8327990D609}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2388,7 +2388,7 @@
         <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2396,10 +2396,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2407,10 +2407,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2418,10 +2418,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2429,10 +2429,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2440,10 +2440,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2451,10 +2451,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2462,10 +2462,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2473,10 +2473,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2484,10 +2484,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2495,10 +2495,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2506,10 +2506,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2520,7 +2520,7 @@
         <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">

--- a/TableFormat_ConversionDefinition.xlsx
+++ b/TableFormat_ConversionDefinition.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED577DF-3495-4980-BB52-A7B9FB4A2C52}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55738340-88E1-454E-A676-EE3EF8E8667F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="format to number" sheetId="1" r:id="rId1"/>
     <sheet name="number to command" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2064,7 +2064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F928CD-8A96-42B3-B16E-F8327990D609}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
